--- a/data/foreign-workforce-numbers.xlsx
+++ b/data/foreign-workforce-numbers.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBAC414-4978-8C48-87A8-BC9E9D60AD1C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB48E8A9-DC43-3747-8CAB-EE1B821364F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="29440" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="0">Sheet1!#REF!</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Pass Type</t>
   </si>
@@ -85,6 +86,21 @@
   </si>
   <si>
     <t>Dec 2017</t>
+  </si>
+  <si>
+    <t>Trend of decresing workers</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>SP</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1460,4 +1476,116 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0DF7AF-9A34-8E41-B588-7E50E489E1B0}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="298" workbookViewId="0">
+      <selection activeCell="G5" sqref="A2:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>2012</v>
+      </c>
+      <c r="C2">
+        <v>2013</v>
+      </c>
+      <c r="D2">
+        <v>2014</v>
+      </c>
+      <c r="E2">
+        <v>2015</v>
+      </c>
+      <c r="F2">
+        <v>2016</v>
+      </c>
+      <c r="G2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.112</v>
+      </c>
+      <c r="C4">
+        <v>0.121</v>
+      </c>
+      <c r="D4">
+        <v>0.125</v>
+      </c>
+      <c r="E4">
+        <v>0.125</v>
+      </c>
+      <c r="F4">
+        <v>0.129</v>
+      </c>
+      <c r="G4">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/foreign-workforce-numbers.xlsx
+++ b/data/foreign-workforce-numbers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB48E8A9-DC43-3747-8CAB-EE1B821364F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0CDE0B-8F16-D842-BC60-BB98D0E8DE3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,6 +864,1270 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Trend of decresing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> workers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC76-B84B-95C5-F6ACD128A302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC76-B84B-95C5-F6ACD128A302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1681368879"/>
+        <c:axId val="1623783407"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CC76-B84B-95C5-F6ACD128A302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1683433247"/>
+        <c:axId val="1625884847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1681368879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1623783407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1623783407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681368879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1625884847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683433247"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1683433247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1625884847"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>818446</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>526518</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93945</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E099A8-6733-B84B-B3EE-C759B076481A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1187,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1482,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0DF7AF-9A34-8E41-B588-7E50E489E1B0}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="298" workbookViewId="0">
-      <selection activeCell="G5" sqref="A2:G5"/>
+    <sheetView topLeftCell="A7" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1587,5 +2851,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>